--- a/medicine/Psychotrope/Vin_bleu/Vin_bleu.xlsx
+++ b/medicine/Psychotrope/Vin_bleu/Vin_bleu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le vin bleu peut faire référence à :
-un vin rouge violacé de qualité très médiocre et peu cher[1],[2],[3] que l'on servait entre le XVIIIe siècle et le XIXe siècle généralement dans les établissements festifs (cabarets, goguettes, guinguettes, bistrots, cafés-concerts, restaurants, etc.) de Paris et ses environs. Ces vins étaient le plus souvent produits dans les vignobles autour de Paris ou à proximité (Montmartre, Suresnes, Argenteuil, Meudon, Rueil, Saint-Cloud, Bagneux, Orléans, Brie, etc.). On parlait alors également de « gros bleu », de « petit bleu » ou simplement de « bleu » pour le désigner ;
-un vin atteint de la « maladie du bleu », une altération bactérienne, ou de « casse bleue » (syn. casse ferrique), un défaut physico-chimique du vin[4],[5],[6]. Le terme « bleu du vin » est aussi parfois utilisé pour désigner ces types d'accident de vinification ;
-diverses boissons à base de vin faussement appelées de manière générique « vin bleu ». Leur couleur pouvant être d'un bleu clair ou foncé, ils sont fabriqués par plusieurs entreprises issues de pays du pourtour méditerranéen (Corse, Espagne[7]). Des enquêtes des forces de l'ordre et des organismes spécialisés ont montré qu'il s'agissait d'une fraude : le vin est artificiellement coloré en bleu[8],[9],[10] ;
-un vin rouge aux reflets bleutés, appelé « vin bleu des Vosges », produit par une cave coopérative au sein de la commune de La Neuveville-sous-Montfort dans les Vosges[11],[12],[13].</t>
+un vin rouge violacé de qualité très médiocre et peu cher que l'on servait entre le XVIIIe siècle et le XIXe siècle généralement dans les établissements festifs (cabarets, goguettes, guinguettes, bistrots, cafés-concerts, restaurants, etc.) de Paris et ses environs. Ces vins étaient le plus souvent produits dans les vignobles autour de Paris ou à proximité (Montmartre, Suresnes, Argenteuil, Meudon, Rueil, Saint-Cloud, Bagneux, Orléans, Brie, etc.). On parlait alors également de « gros bleu », de « petit bleu » ou simplement de « bleu » pour le désigner ;
+un vin atteint de la « maladie du bleu », une altération bactérienne, ou de « casse bleue » (syn. casse ferrique), un défaut physico-chimique du vin. Le terme « bleu du vin » est aussi parfois utilisé pour désigner ces types d'accident de vinification ;
+diverses boissons à base de vin faussement appelées de manière générique « vin bleu ». Leur couleur pouvant être d'un bleu clair ou foncé, ils sont fabriqués par plusieurs entreprises issues de pays du pourtour méditerranéen (Corse, Espagne). Des enquêtes des forces de l'ordre et des organismes spécialisés ont montré qu'il s'agissait d'une fraude : le vin est artificiellement coloré en bleu ;
+un vin rouge aux reflets bleutés, appelé « vin bleu des Vosges », produit par une cave coopérative au sein de la commune de La Neuveville-sous-Montfort dans les Vosges.</t>
         </is>
       </c>
     </row>
